--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>265.592069595228</v>
+        <v>265.59206955217525</v>
       </c>
       <c r="C2">
-        <v>264.62931798073754</v>
+        <v>264.62931797702191</v>
       </c>
       <c r="D2">
-        <v>191.78002617377507</v>
+        <v>191.78002614134033</v>
       </c>
       <c r="E2">
-        <v>263.94050223121911</v>
+        <v>263.94050220974475</v>
       </c>
       <c r="F2">
-        <v>201.40498152632139</v>
+        <v>201.40498151857577</v>
       </c>
       <c r="G2">
-        <v>272.83645790928438</v>
+        <v>272.83645790258873</v>
       </c>
       <c r="H2">
-        <v>233.46293026028721</v>
+        <v>233.46293023330475</v>
       </c>
       <c r="I2">
-        <v>299.33468632252556</v>
+        <v>299.33468630976199</v>
       </c>
       <c r="J2">
-        <v>236.04584867488686</v>
+        <v>236.04584865051436</v>
       </c>
       <c r="K2">
-        <v>248.58942661345625</v>
+        <v>248.58942660453138</v>
       </c>
       <c r="L2">
-        <v>225.24096143851753</v>
+        <v>225.24096141221864</v>
       </c>
       <c r="M2">
-        <v>297.0376455433169</v>
+        <v>297.03764550532037</v>
       </c>
       <c r="N2">
-        <v>281.9477335158366</v>
+        <v>281.94773347510869</v>
       </c>
       <c r="O2">
-        <v>257.38178831437972</v>
+        <v>257.38178829125468</v>
       </c>
       <c r="P2">
-        <v>277.8269168990974</v>
+        <v>277.82691688113539</v>
       </c>
       <c r="Q2">
-        <v>327.19882207486779</v>
+        <v>327.19882206808569</v>
       </c>
       <c r="R2">
-        <v>302.84293276086311</v>
+        <v>302.84293275323353</v>
       </c>
       <c r="S2">
-        <v>292.84111934901392</v>
+        <v>292.84111933471536</v>
       </c>
       <c r="T2">
-        <v>293.84433239949624</v>
+        <v>293.84433235243324</v>
       </c>
       <c r="U2">
-        <v>238.17692794628553</v>
+        <v>238.17692793199018</v>
       </c>
       <c r="V2">
-        <v>292.5706774850824</v>
+        <v>292.57067746201039</v>
       </c>
       <c r="W2">
-        <v>302.11243901219183</v>
+        <v>302.11243899236035</v>
       </c>
       <c r="X2">
-        <v>264.46381631957053</v>
+        <v>264.46381630135522</v>
       </c>
       <c r="Y2">
-        <v>251.40068659026014</v>
+        <v>251.4006865509858</v>
       </c>
       <c r="Z2">
-        <v>224.51629140377645</v>
+        <v>224.51629137943925</v>
       </c>
       <c r="AA2">
-        <v>285.5575696018488</v>
+        <v>285.55756957690596</v>
       </c>
       <c r="AB2">
-        <v>266.95393418121387</v>
+        <v>266.95393416595908</v>
       </c>
       <c r="AC2">
-        <v>220.10259444634505</v>
+        <v>220.1025944385247</v>
       </c>
       <c r="AD2">
-        <v>264.44067851789964</v>
+        <v>264.44067850927217</v>
       </c>
       <c r="AE2">
-        <v>234.41058799756993</v>
+        <v>234.41058798470689</v>
       </c>
       <c r="AF2">
-        <v>272.07130412123638</v>
+        <v>272.07130411718708</v>
       </c>
       <c r="AG2">
-        <v>229.11921242134443</v>
+        <v>229.11921239736753</v>
       </c>
       <c r="AH2">
-        <v>296.02641103588644</v>
+        <v>296.02641102794132</v>
       </c>
       <c r="AI2">
-        <v>235.97042017915652</v>
+        <v>235.97042015617859</v>
       </c>
       <c r="AJ2">
-        <v>242.09956957844264</v>
+        <v>242.09956957830892</v>
       </c>
       <c r="AK2">
-        <v>222.05202339112364</v>
+        <v>222.05202337198784</v>
       </c>
       <c r="AL2">
-        <v>291.66835579960235</v>
+        <v>291.66835577605752</v>
       </c>
       <c r="AM2">
-        <v>283.31402614459142</v>
+        <v>283.31402611354474</v>
       </c>
       <c r="AN2">
-        <v>253.51132358370444</v>
+        <v>253.51132356186886</v>
       </c>
       <c r="AO2">
-        <v>285.74473361374913</v>
+        <v>285.74473361125206</v>
       </c>
       <c r="AP2">
-        <v>335.60636524668092</v>
+        <v>335.60636523193659</v>
       </c>
       <c r="AQ2">
-        <v>304.56824210731497</v>
+        <v>304.56824208576404</v>
       </c>
       <c r="AR2">
-        <v>294.99036057749993</v>
+        <v>294.99036057763277</v>
       </c>
       <c r="AS2">
-        <v>293.30107699775527</v>
+        <v>293.30107699133691</v>
       </c>
       <c r="AT2">
-        <v>236.73627644636056</v>
+        <v>236.73627643085803</v>
       </c>
       <c r="AU2">
-        <v>296.31522340620825</v>
+        <v>296.31522339862084</v>
       </c>
       <c r="AV2">
-        <v>291.08316067041653</v>
+        <v>291.08316064506465</v>
       </c>
       <c r="AW2">
-        <v>262.76576900620091</v>
+        <v>262.76576900055835</v>
       </c>
       <c r="AX2">
-        <v>252.81856082703845</v>
+        <v>252.81856081186305</v>
       </c>
       <c r="AY2">
-        <v>244.79243909779711</v>
+        <v>244.79243908280415</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>286.79473960533034</v>
+        <v>286.7947395785626</v>
       </c>
       <c r="C3">
-        <v>256.78097857391072</v>
+        <v>256.78097854462044</v>
       </c>
       <c r="D3">
-        <v>217.78210597390708</v>
+        <v>217.78210593282813</v>
       </c>
       <c r="E3">
-        <v>257.2116646006441</v>
+        <v>257.21166456488794</v>
       </c>
       <c r="F3">
-        <v>239.60765147521093</v>
+        <v>239.60765146994831</v>
       </c>
       <c r="G3">
-        <v>266.00409424098518</v>
+        <v>266.00409421757848</v>
       </c>
       <c r="H3">
-        <v>225.30849680968859</v>
+        <v>225.30849677541855</v>
       </c>
       <c r="I3">
-        <v>310.69991733412013</v>
+        <v>310.6999173268706</v>
       </c>
       <c r="J3">
-        <v>235.85005540322845</v>
+        <v>235.85005538309125</v>
       </c>
       <c r="K3">
-        <v>250.88033879004354</v>
+        <v>250.88033876216306</v>
       </c>
       <c r="L3">
-        <v>265.9584313488985</v>
+        <v>265.95843132205891</v>
       </c>
       <c r="M3">
-        <v>297.14465105016427</v>
+        <v>297.14473662066877</v>
       </c>
       <c r="N3">
-        <v>290.43541871450373</v>
+        <v>290.43541868516547</v>
       </c>
       <c r="O3">
-        <v>249.30799914606223</v>
+        <v>249.3079991300373</v>
       </c>
       <c r="P3">
-        <v>287.04954013226865</v>
+        <v>287.04954010788219</v>
       </c>
       <c r="Q3">
-        <v>320.9831688498108</v>
+        <v>320.98316882945852</v>
       </c>
       <c r="R3">
-        <v>301.16146995515425</v>
+        <v>301.16146993977605</v>
       </c>
       <c r="S3">
-        <v>297.78935727990932</v>
+        <v>297.78935726591544</v>
       </c>
       <c r="T3">
-        <v>275.17026170959593</v>
+        <v>275.17026168819882</v>
       </c>
       <c r="U3">
-        <v>218.46671666337278</v>
+        <v>218.46671663105201</v>
       </c>
       <c r="V3">
-        <v>302.76502995253531</v>
+        <v>302.76502993166486</v>
       </c>
       <c r="W3">
-        <v>262.43187935745505</v>
+        <v>262.4318793374041</v>
       </c>
       <c r="X3">
-        <v>268.06881614684835</v>
+        <v>268.06881613557243</v>
       </c>
       <c r="Y3">
-        <v>250.83463983006118</v>
+        <v>250.83463981708064</v>
       </c>
       <c r="Z3">
-        <v>259.91128587785909</v>
+        <v>259.91128585903124</v>
       </c>
       <c r="AA3">
-        <v>293.80799235488195</v>
+        <v>293.80799233554319</v>
       </c>
       <c r="AB3">
-        <v>250.82782097274895</v>
+        <v>250.82782094946634</v>
       </c>
       <c r="AC3">
-        <v>219.71523008483405</v>
+        <v>219.71523006753318</v>
       </c>
       <c r="AD3">
-        <v>251.15962259394945</v>
+        <v>251.15962258417619</v>
       </c>
       <c r="AE3">
-        <v>256.02955943299418</v>
+        <v>256.02955942855561</v>
       </c>
       <c r="AF3">
-        <v>263.88851972378984</v>
+        <v>263.88851970734436</v>
       </c>
       <c r="AG3">
-        <v>230.256440371976</v>
+        <v>230.25644035087086</v>
       </c>
       <c r="AH3">
-        <v>313.6949461690686</v>
+        <v>313.69494614969085</v>
       </c>
       <c r="AI3">
-        <v>237.3207083751515</v>
+        <v>237.32070835567944</v>
       </c>
       <c r="AJ3">
-        <v>250.72449069547275</v>
+        <v>250.7244906588536</v>
       </c>
       <c r="AK3">
-        <v>238.76035311722026</v>
+        <v>238.76035309271541</v>
       </c>
       <c r="AL3">
-        <v>306.51804775651334</v>
+        <v>306.51804773551885</v>
       </c>
       <c r="AM3">
-        <v>301.3050917258729</v>
+        <v>301.305091687095</v>
       </c>
       <c r="AN3">
-        <v>247.47747325612835</v>
+        <v>247.47747324598532</v>
       </c>
       <c r="AO3">
-        <v>287.2224844139032</v>
+        <v>287.22248437785851</v>
       </c>
       <c r="AP3">
-        <v>319.13002972547554</v>
+        <v>319.13002970970365</v>
       </c>
       <c r="AQ3">
-        <v>307.3364259304725</v>
+        <v>307.33642592395637</v>
       </c>
       <c r="AR3">
-        <v>297.21478313532856</v>
+        <v>297.2147831215176</v>
       </c>
       <c r="AS3">
-        <v>274.66643672390279</v>
+        <v>274.66643670686358</v>
       </c>
       <c r="AT3">
-        <v>221.77833838690159</v>
+        <v>221.77833837875835</v>
       </c>
       <c r="AU3">
-        <v>298.46390916261572</v>
+        <v>298.46390913607115</v>
       </c>
       <c r="AV3">
-        <v>260.32833487630342</v>
+        <v>260.32833485184</v>
       </c>
       <c r="AW3">
-        <v>265.32858822987652</v>
+        <v>265.32858821787221</v>
       </c>
       <c r="AX3">
-        <v>249.26891528197038</v>
+        <v>249.26891526107877</v>
       </c>
       <c r="AY3">
-        <v>262.03981013882105</v>
+        <v>262.03981011636813</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>265.59206955217525</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>264.62931797702191</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>191.78002614134033</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>263.94050220974475</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>201.40498151857577</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>272.83645790258873</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>233.46293023330475</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>299.33468630976199</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>236.04584865051436</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>248.58942660453138</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>225.24096141221864</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>297.03764550532037</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>281.94773347510869</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>257.38178829125468</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>277.82691688113539</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>327.19882206808569</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>302.84293275323353</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>292.84111933471536</v>
@@ -588,55 +477,55 @@
         <v>224.51629137943925</v>
       </c>
       <c r="AA2">
-        <v>285.55756957690596</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>266.95393416595908</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>220.1025944385247</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>264.44067850927217</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>234.41058798470689</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>272.07130411718708</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>229.11921239736753</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>296.02641102794132</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>235.97042015617859</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>242.09956957830892</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>222.05202337198784</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>291.66835577605752</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>283.31402611354474</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>253.51132356186886</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>285.74473361125206</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>335.60636523193659</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>304.56824208576404</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>294.99036057763277</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>286.7947395785626</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>256.78097854462044</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>217.78210593282813</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>257.21166456488794</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>239.60765146994831</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>266.00409421757848</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>225.30849677541855</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>310.6999173268706</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>235.85005538309125</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>250.88033876216306</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>265.95843132205891</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>297.14473662066877</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>290.43541868516547</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>249.3079991300373</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>287.04954010788219</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>320.98316882945852</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>301.16146993977605</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>297.78935726591544</v>
@@ -743,55 +629,55 @@
         <v>259.91128585903124</v>
       </c>
       <c r="AA3">
-        <v>293.80799233554319</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>250.82782094946634</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>219.71523006753318</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>251.15962258417619</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>256.02955942855561</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>263.88851970734436</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>230.25644035087086</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>313.69494614969085</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>237.32070835567944</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>250.7244906588536</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>238.76035309271541</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>306.51804773551885</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>301.305091687095</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>247.47747324598532</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>287.22248437785851</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>319.13002970970365</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>307.33642592395637</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>297.2147831215176</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>265.592069595228</v>
+        <v>257.38178829125468</v>
       </c>
       <c r="C2">
-        <v>264.62931798073754</v>
+        <v>302.84293275323353</v>
       </c>
       <c r="D2">
-        <v>191.78002617377507</v>
+        <v>253.51132356186886</v>
       </c>
       <c r="E2">
-        <v>263.94050223121911</v>
+        <v>304.56824208576404</v>
       </c>
       <c r="F2">
         <v>201.40498152632139</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>286.79473960533034</v>
+        <v>249.3079991300373</v>
       </c>
       <c r="C3">
-        <v>256.78097857391072</v>
+        <v>301.16146993977605</v>
       </c>
       <c r="D3">
-        <v>217.78210597390708</v>
+        <v>247.47747324598532</v>
       </c>
       <c r="E3">
-        <v>257.2116646006441</v>
+        <v>307.55551255631553</v>
       </c>
       <c r="F3">
         <v>239.60765147521093</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>265.592069595228</v>
+        <v>281.94773347510869</v>
       </c>
       <c r="C2">
-        <v>264.62931798073754</v>
+        <v>257.38178829125468</v>
       </c>
       <c r="D2">
-        <v>191.78002617377507</v>
+        <v>283.31402611354474</v>
       </c>
       <c r="E2">
-        <v>263.94050223121911</v>
+        <v>253.51132356186886</v>
       </c>
       <c r="F2">
         <v>201.40498152632139</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>286.79473960533034</v>
+        <v>290.43541868516547</v>
       </c>
       <c r="C3">
-        <v>256.78097857391072</v>
+        <v>249.3079991300373</v>
       </c>
       <c r="D3">
-        <v>217.78210597390708</v>
+        <v>301.305091687095</v>
       </c>
       <c r="E3">
-        <v>257.2116646006441</v>
+        <v>247.47747324598532</v>
       </c>
       <c r="F3">
         <v>239.60765147521093</v>

--- a/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_msc_SOL_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>265.59206955217525</v>
+      </c>
+      <c r="C2">
+        <v>264.62931797702191</v>
+      </c>
+      <c r="D2">
+        <v>191.78002614134033</v>
+      </c>
+      <c r="E2">
+        <v>263.94050220974475</v>
+      </c>
+      <c r="F2">
+        <v>201.40498151857577</v>
+      </c>
+      <c r="G2">
+        <v>272.83645790258873</v>
+      </c>
+      <c r="H2">
+        <v>233.46293023330475</v>
+      </c>
+      <c r="I2">
+        <v>299.33468630976199</v>
+      </c>
+      <c r="J2">
+        <v>236.04584865051436</v>
+      </c>
+      <c r="K2">
+        <v>248.58942660453138</v>
+      </c>
+      <c r="L2">
+        <v>225.24096141221864</v>
+      </c>
+      <c r="M2">
+        <v>297.03764550532037</v>
+      </c>
+      <c r="N2">
         <v>281.94773347510869</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>257.38178829125468</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>277.82691688113539</v>
+      </c>
+      <c r="Q2">
+        <v>327.19882206808569</v>
+      </c>
+      <c r="R2">
+        <v>302.84293275323353</v>
+      </c>
+      <c r="S2">
+        <v>292.84111933471536</v>
+      </c>
+      <c r="T2">
+        <v>293.84433235243324</v>
+      </c>
+      <c r="U2">
+        <v>238.17692793199018</v>
+      </c>
+      <c r="V2">
+        <v>292.57067746201039</v>
+      </c>
+      <c r="W2">
+        <v>302.11243899236035</v>
+      </c>
+      <c r="X2">
+        <v>264.46381630135522</v>
+      </c>
+      <c r="Y2">
+        <v>251.4006865509858</v>
+      </c>
+      <c r="Z2">
+        <v>224.51629137943925</v>
+      </c>
+      <c r="AA2">
+        <v>285.55756957690596</v>
+      </c>
+      <c r="AB2">
+        <v>266.95393416595908</v>
+      </c>
+      <c r="AC2">
+        <v>220.1025944385247</v>
+      </c>
+      <c r="AD2">
+        <v>264.44067850927217</v>
+      </c>
+      <c r="AE2">
+        <v>234.41058798470689</v>
+      </c>
+      <c r="AF2">
+        <v>272.07130411718708</v>
+      </c>
+      <c r="AG2">
+        <v>229.11921239736753</v>
+      </c>
+      <c r="AH2">
+        <v>296.02641102794132</v>
+      </c>
+      <c r="AI2">
+        <v>235.97042015617859</v>
+      </c>
+      <c r="AJ2">
+        <v>242.09956957830892</v>
+      </c>
+      <c r="AK2">
+        <v>222.05202337198784</v>
+      </c>
+      <c r="AL2">
+        <v>291.66835577605752</v>
+      </c>
+      <c r="AM2">
         <v>283.31402611354474</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>253.51132356186886</v>
       </c>
-      <c r="F2">
-        <v>201.40498152632139</v>
-      </c>
-      <c r="G2">
-        <v>272.83645790928438</v>
-      </c>
-      <c r="H2">
-        <v>233.46293026028721</v>
-      </c>
-      <c r="I2">
-        <v>299.33468632252556</v>
-      </c>
-      <c r="J2">
-        <v>236.04584867488686</v>
-      </c>
-      <c r="K2">
-        <v>248.58942661345625</v>
-      </c>
-      <c r="L2">
-        <v>225.24096143851753</v>
-      </c>
-      <c r="M2">
-        <v>297.0376455433169</v>
-      </c>
-      <c r="N2">
-        <v>281.9477335158366</v>
-      </c>
-      <c r="O2">
-        <v>257.38178831437972</v>
-      </c>
-      <c r="P2">
-        <v>277.8269168990974</v>
-      </c>
-      <c r="Q2">
-        <v>327.19882207486779</v>
-      </c>
-      <c r="R2">
-        <v>302.84293276086311</v>
-      </c>
-      <c r="S2">
-        <v>292.84111934901392</v>
-      </c>
-      <c r="T2">
-        <v>293.84433239949624</v>
-      </c>
-      <c r="U2">
-        <v>238.17692794628553</v>
-      </c>
-      <c r="V2">
-        <v>292.5706774850824</v>
-      </c>
-      <c r="W2">
-        <v>302.11243901219183</v>
-      </c>
-      <c r="X2">
-        <v>264.46381631957053</v>
-      </c>
-      <c r="Y2">
-        <v>251.40068659026014</v>
-      </c>
-      <c r="Z2">
-        <v>224.51629140377645</v>
-      </c>
-      <c r="AA2">
-        <v>285.5575696018488</v>
-      </c>
-      <c r="AB2">
-        <v>266.95393418121387</v>
-      </c>
-      <c r="AC2">
-        <v>220.10259444634505</v>
-      </c>
-      <c r="AD2">
-        <v>264.44067851789964</v>
-      </c>
-      <c r="AE2">
-        <v>234.41058799756993</v>
-      </c>
-      <c r="AF2">
-        <v>272.07130412123638</v>
-      </c>
-      <c r="AG2">
-        <v>229.11921242134443</v>
-      </c>
-      <c r="AH2">
-        <v>296.02641103588644</v>
-      </c>
-      <c r="AI2">
-        <v>235.97042017915652</v>
-      </c>
-      <c r="AJ2">
-        <v>242.09956957844264</v>
-      </c>
-      <c r="AK2">
-        <v>222.05202339112364</v>
-      </c>
-      <c r="AL2">
-        <v>291.66835579960235</v>
-      </c>
-      <c r="AM2">
-        <v>283.31402614459142</v>
-      </c>
-      <c r="AN2">
-        <v>253.51132358370444</v>
-      </c>
       <c r="AO2">
-        <v>285.74473361374913</v>
+        <v>285.74473361125206</v>
       </c>
       <c r="AP2">
-        <v>335.60636524668092</v>
+        <v>335.60636523193659</v>
       </c>
       <c r="AQ2">
-        <v>304.56824210731497</v>
+        <v>304.56824208576404</v>
       </c>
       <c r="AR2">
-        <v>294.99036057749993</v>
+        <v>294.99036057763277</v>
       </c>
       <c r="AS2">
-        <v>293.30107699775527</v>
+        <v>293.30107699133691</v>
       </c>
       <c r="AT2">
-        <v>236.73627644636056</v>
+        <v>236.73627643085803</v>
       </c>
       <c r="AU2">
-        <v>296.31522340620825</v>
+        <v>296.31522339862084</v>
       </c>
       <c r="AV2">
-        <v>291.08316067041653</v>
+        <v>291.08316064506465</v>
       </c>
       <c r="AW2">
-        <v>262.76576900620091</v>
+        <v>262.76576900055835</v>
       </c>
       <c r="AX2">
-        <v>252.81856082703845</v>
+        <v>252.81856081186305</v>
       </c>
       <c r="AY2">
-        <v>244.79243909779711</v>
+        <v>244.79243908280415</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>286.7947395785626</v>
+      </c>
+      <c r="C3">
+        <v>256.78097854462044</v>
+      </c>
+      <c r="D3">
+        <v>217.78210593282813</v>
+      </c>
+      <c r="E3">
+        <v>257.21166456488794</v>
+      </c>
+      <c r="F3">
+        <v>239.60765146994831</v>
+      </c>
+      <c r="G3">
+        <v>266.00409421757848</v>
+      </c>
+      <c r="H3">
+        <v>225.30849677541855</v>
+      </c>
+      <c r="I3">
+        <v>310.6999173268706</v>
+      </c>
+      <c r="J3">
+        <v>235.85005538309125</v>
+      </c>
+      <c r="K3">
+        <v>250.88033876216306</v>
+      </c>
+      <c r="L3">
+        <v>265.95843132205891</v>
+      </c>
+      <c r="M3">
+        <v>297.14473662066877</v>
+      </c>
+      <c r="N3">
         <v>290.43541868516547</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>249.3079991300373</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>287.04954010788219</v>
+      </c>
+      <c r="Q3">
+        <v>320.98316882945852</v>
+      </c>
+      <c r="R3">
+        <v>301.16146993977605</v>
+      </c>
+      <c r="S3">
+        <v>297.78935726591544</v>
+      </c>
+      <c r="T3">
+        <v>275.17026168819882</v>
+      </c>
+      <c r="U3">
+        <v>218.46671663105201</v>
+      </c>
+      <c r="V3">
+        <v>302.76502993166486</v>
+      </c>
+      <c r="W3">
+        <v>262.4318793374041</v>
+      </c>
+      <c r="X3">
+        <v>268.06881613557243</v>
+      </c>
+      <c r="Y3">
+        <v>250.83463981708064</v>
+      </c>
+      <c r="Z3">
+        <v>259.91128585903124</v>
+      </c>
+      <c r="AA3">
+        <v>293.80799233554319</v>
+      </c>
+      <c r="AB3">
+        <v>250.82782094946634</v>
+      </c>
+      <c r="AC3">
+        <v>219.71523006753318</v>
+      </c>
+      <c r="AD3">
+        <v>251.15962258417619</v>
+      </c>
+      <c r="AE3">
+        <v>256.02955942855561</v>
+      </c>
+      <c r="AF3">
+        <v>263.88851970734436</v>
+      </c>
+      <c r="AG3">
+        <v>230.25644035087086</v>
+      </c>
+      <c r="AH3">
+        <v>313.65985299005774</v>
+      </c>
+      <c r="AI3">
+        <v>237.32070835567944</v>
+      </c>
+      <c r="AJ3">
+        <v>250.7244906588536</v>
+      </c>
+      <c r="AK3">
+        <v>238.76035309271541</v>
+      </c>
+      <c r="AL3">
+        <v>306.51804773551885</v>
+      </c>
+      <c r="AM3">
         <v>301.305091687095</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>247.47747324598532</v>
       </c>
-      <c r="F3">
-        <v>239.60765147521093</v>
-      </c>
-      <c r="G3">
-        <v>266.00409424098518</v>
-      </c>
-      <c r="H3">
-        <v>225.30849680968859</v>
-      </c>
-      <c r="I3">
-        <v>310.69991733412013</v>
-      </c>
-      <c r="J3">
-        <v>235.85005540322845</v>
-      </c>
-      <c r="K3">
-        <v>250.88033879004354</v>
-      </c>
-      <c r="L3">
-        <v>265.9584313488985</v>
-      </c>
-      <c r="M3">
-        <v>297.14465105016427</v>
-      </c>
-      <c r="N3">
-        <v>290.43541871450373</v>
-      </c>
-      <c r="O3">
-        <v>249.30799914606223</v>
-      </c>
-      <c r="P3">
-        <v>287.04954013226865</v>
-      </c>
-      <c r="Q3">
-        <v>320.9831688498108</v>
-      </c>
-      <c r="R3">
-        <v>301.16146995515425</v>
-      </c>
-      <c r="S3">
-        <v>297.78935727990932</v>
-      </c>
-      <c r="T3">
-        <v>275.17026170959593</v>
-      </c>
-      <c r="U3">
-        <v>218.46671666337278</v>
-      </c>
-      <c r="V3">
-        <v>302.76502995253531</v>
-      </c>
-      <c r="W3">
-        <v>262.43187935745505</v>
-      </c>
-      <c r="X3">
-        <v>268.06881614684835</v>
-      </c>
-      <c r="Y3">
-        <v>250.83463983006118</v>
-      </c>
-      <c r="Z3">
-        <v>259.91128587785909</v>
-      </c>
-      <c r="AA3">
-        <v>293.80799235488195</v>
-      </c>
-      <c r="AB3">
-        <v>250.82782097274895</v>
-      </c>
-      <c r="AC3">
-        <v>219.71523008483405</v>
-      </c>
-      <c r="AD3">
-        <v>251.15962259394945</v>
-      </c>
-      <c r="AE3">
-        <v>256.02955943299418</v>
-      </c>
-      <c r="AF3">
-        <v>263.88851972378984</v>
-      </c>
-      <c r="AG3">
-        <v>230.256440371976</v>
-      </c>
-      <c r="AH3">
-        <v>313.65985300052876</v>
-      </c>
-      <c r="AI3">
-        <v>237.3207083751515</v>
-      </c>
-      <c r="AJ3">
-        <v>250.72449069547275</v>
-      </c>
-      <c r="AK3">
-        <v>238.76035311722026</v>
-      </c>
-      <c r="AL3">
-        <v>306.51804775651334</v>
-      </c>
-      <c r="AM3">
-        <v>301.3050917258729</v>
-      </c>
-      <c r="AN3">
-        <v>247.47747325612835</v>
-      </c>
       <c r="AO3">
-        <v>287.2224844139032</v>
+        <v>287.22248437785851</v>
       </c>
       <c r="AP3">
-        <v>319.13002972547554</v>
+        <v>319.13002970970365</v>
       </c>
       <c r="AQ3">
-        <v>307.55551256230552</v>
+        <v>307.55551255631553</v>
       </c>
       <c r="AR3">
-        <v>297.21478313532856</v>
+        <v>297.2147831215176</v>
       </c>
       <c r="AS3">
-        <v>274.66643672390279</v>
+        <v>274.66643670686358</v>
       </c>
       <c r="AT3">
-        <v>221.77833838690159</v>
+        <v>221.77833837875835</v>
       </c>
       <c r="AU3">
-        <v>298.46390916261572</v>
+        <v>298.46390913607115</v>
       </c>
       <c r="AV3">
-        <v>260.32833487630342</v>
+        <v>260.32833485184</v>
       </c>
       <c r="AW3">
-        <v>265.32858822987652</v>
+        <v>265.32858821787221</v>
       </c>
       <c r="AX3">
-        <v>249.26891528197038</v>
+        <v>249.26891526107877</v>
       </c>
       <c r="AY3">
-        <v>262.03981013882105</v>
+        <v>262.03981011636813</v>
       </c>
     </row>
   </sheetData>
